--- a/src/Расписание_тренировок.xlsx
+++ b/src/Расписание_тренировок.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Январь 2024" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Февраль 2024" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,9 +18,11 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -63,11 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -149,9 +147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -261,7 +259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,6 +399,11 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -410,166 +413,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
-  <cols>
-    <col width="12.85546875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="25" customWidth="1" style="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="8"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="0" ht="20" customHeight="1"/>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="inlineStr"/>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Понедельник</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Вторник</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Среда</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Четверг</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Пятница</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Суббота</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>Воскресенье</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="40" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>9:00 - 10:00</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Лера - Аэро</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>Настя - Здоровая спина</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>Лера - Аэро</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>Настя - Здоровая спина</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>Лера - Аэро</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>Настя - Здоровая спина</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>Лера - Аэро</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>10:00 - 11:00</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Настя - Аэро</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Лера - Здоровая спина</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Настя - Аэро</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Лера - Здоровая спина</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Настя - Аэро</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>Лера - Здоровая спина</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>Настя - Аэро</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
@@ -580,122 +432,122 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="inlineStr"/>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Понедельник</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Вторник</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Среда</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Четверг</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Пятница</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Суббота</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Воскресенье</t>
         </is>
       </c>
     </row>
     <row r="2" ht="40" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>9:00 - 10:00</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Лера - Аэро</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Настя - Здоровая спина</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Лера - Аэро</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Настя - Здоровая спина</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Лера - Аэро</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>Настя - Здоровая спина</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Лера - Аэро</t>
         </is>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>10:00 - 11:00</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Настя - Аэро</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Лера - Здоровая спина</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Настя - Аэро</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Лера - Здоровая спина</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Настя - Аэро</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Лера - Здоровая спина</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>Настя - Аэро</t>
         </is>
@@ -712,6 +564,6 @@
     <row r="12"/>
     <row r="13"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>